--- a/docs/StructureDefinition-WhoCrQuestionnaireResponseCovid19Surveillance.xlsx
+++ b/docs/StructureDefinition-WhoCrQuestionnaireResponseCovid19Surveillance.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="283">
   <si>
     <t>Path</t>
   </si>
@@ -135,7 +135,7 @@
   </si>
   <si>
     <t>Form
-QuestionnaireAnswers</t>
+QuestionnaireAnswersForm Data</t>
   </si>
   <si>
     <t>0</t>
@@ -147,10 +147,10 @@
     <t/>
   </si>
   <si>
-    <t>A structured set of questions and their answers</t>
-  </si>
-  <si>
-    <t>A structured set of questions and their answers. The questions are ordered and grouped into coherent subsets, corresponding to the structure of the grouping of the questionnaire being responded to.</t>
+    <t>SDC Questionnaire Response</t>
+  </si>
+  <si>
+    <t>Sets expectations for supported capabilities for questionnaire responses for SDC-conformant systems.</t>
   </si>
   <si>
     <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
@@ -313,33 +313,54 @@
     <t>QuestionnaireResponse.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaireresponse-signature}
+</t>
+  </si>
+  <si>
+    <t>A signature attesting to the content</t>
+  </si>
+  <si>
+    <t>Represents a wet or electronic signature for either the form overall or for the question or item it's associated with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -347,6 +368,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -433,7 +457,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/uv/sdc/StructureDefinition/sdc-questionnaire)
 </t>
   </si>
   <si>
@@ -443,7 +467,7 @@
     <t>The Questionnaire that defines and organizes the questions for which answers are being provided.</t>
   </si>
   <si>
-    <t>If a QuestionnaireResponse references a Questionnaire, then the QuestionnaireResponse structure must be consistent with the Questionnaire (i.e. questions must be organized into the same groups, nested questions must still be nested, etc.).</t>
+    <t>For SDC, this SHALL be the version-specific URL of the form as hosted on the Form Manager.</t>
   </si>
   <si>
     <t>Needed to allow editing of the questionnaire response in a manner that enforces the constraints of the original form.</t>
@@ -456,6 +480,49 @@
   </si>
   <si>
     <t>./outboundRelationship[typeCode=INST]/target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.questionnaire.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.questionnaire.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>questionnaireDisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {display}
+</t>
+  </si>
+  <si>
+    <t>Display name for canonical reference</t>
+  </si>
+  <si>
+    <t>The title or other name to display when referencing a resource by canonical URL.</t>
+  </si>
+  <si>
+    <t>This SHALL be the title of the Questionnaire at the time the QuestionnaireResponse was originally authored.</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.questionnaire.value</t>
+  </si>
+  <si>
+    <t>Primitive value for canonical</t>
+  </si>
+  <si>
+    <t>uri.value</t>
   </si>
   <si>
     <t>QuestionnaireResponse.status</t>
@@ -495,7 +562,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/WhoCrPatient)
 </t>
   </si>
   <si>
@@ -509,11 +576,6 @@
   </si>
   <si>
     <t>Allows linking the answers to the individual the answers describe.  May also affect access control.</t>
-  </si>
-  <si>
-    <t>&lt;valueReference xmlns="http://hl7.org/fhir"&gt;
-  &lt;reference value="WhoCrPatient"/&gt;
-&lt;/valueReference&gt;</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -567,7 +629,7 @@
     <t>Date the answers were gathered</t>
   </si>
   <si>
-    <t>The date and/or time that this set of answers were last changed.</t>
+    <t>Identifies when this version of the answer set was created.  Changes whenever the answers are updated.</t>
   </si>
   <si>
     <t>May be different from the lastUpdateTime of the resource itself, because that reflects when the data was known to the server, not when the data was captured.
@@ -675,19 +737,13 @@
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
+    <t>ItemSignature</t>
   </si>
   <si>
     <t>QuestionnaireResponse.item.modifierExtension</t>
@@ -777,6 +833,24 @@
     <t>QuestionnaireResponse.item.answer.extension</t>
   </si>
   <si>
+    <t>ordinalValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {ordinalValue}
+</t>
+  </si>
+  <si>
+    <t>Assigned Ordinal Value</t>
+  </si>
+  <si>
+    <t>A numeric value that allows the comparison (less than, greater than) or other numerical 
+manipulation of a concept (e.g. Adding up components of a score). Scores are usually a whole number, but occasionally decimals are encountered in scores.</t>
+  </si>
+  <si>
+    <t>Scores are commonly encountered in various clinical assessment scales. Assigning a value to a concept should generally be done in a formal code system that defines the value, or in an applicable value set for the concept, but some concepts do not have a formal definition (or are not even represented as a concept formally, especially in [Questionnaires](http://hl7.org/fhir/R4/questionnaire.html), 
+so this extension is allowed to appear ouside those preferred contexts.  Scores may even be assigned arbitrarily during use (hence, on Coding). The value may be constrained to an integer in some contexts of use. Todo: Scoring algorithms may also be defined directly, but how this is done is not yet defined.</t>
+  </si>
+  <si>
     <t>QuestionnaireResponse.item.answer.modifierExtension</t>
   </si>
   <si>
@@ -784,7 +858,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+datedateTimetimedecimalintegerstringCodinguriQuantityAttachmentReference</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -981,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -991,7 +1065,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.93359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1906,7 +1980,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1925,17 +1999,15 @@
         <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>42</v>
@@ -1972,16 +2044,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>100</v>
@@ -2002,7 +2072,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2010,11 +2080,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2027,26 +2099,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>105</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2094,7 +2162,7 @@
         <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -2103,7 +2171,7 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>101</v>
@@ -2112,7 +2180,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2124,26 +2192,26 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>109</v>
@@ -2151,9 +2219,11 @@
       <c r="L11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="N11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2202,47 +2272,47 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>114</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>42</v>
@@ -2251,17 +2321,17 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2310,13 +2380,13 @@
         <v>42</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
@@ -2325,22 +2395,22 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2367,10 +2437,10 @@
       <c r="L13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2418,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2448,14 +2518,14 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>42</v>
@@ -2467,20 +2537,18 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2489,7 +2557,7 @@
         <v>42</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>42</v>
@@ -2534,7 +2602,7 @@
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>42</v>
@@ -2543,22 +2611,22 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2568,28 +2636,28 @@
         <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -2599,7 +2667,7 @@
         <v>42</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>42</v>
@@ -2614,11 +2682,13 @@
         <v>42</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>42</v>
@@ -2636,10 +2706,10 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>50</v>
@@ -2651,22 +2721,22 @@
         <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2682,23 +2752,19 @@
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -2707,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>42</v>
@@ -2758,21 +2824,21 @@
         <v>42</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2783,7 +2849,7 @@
         <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
@@ -2792,23 +2858,19 @@
         <v>42</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -2844,49 +2906,49 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -2896,29 +2958,27 @@
         <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -2966,37 +3026,37 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3012,23 +3072,19 @@
         <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3076,7 +3132,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3088,21 +3144,21 @@
         <v>42</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3110,34 +3166,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3162,13 +3218,11 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3186,10 +3240,10 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3201,52 +3255,54 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3294,33 +3350,33 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3340,19 +3396,23 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3400,7 +3460,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3412,55 +3472,57 @@
         <v>42</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3508,68 +3570,68 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -3618,33 +3680,33 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3652,7 +3714,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
@@ -3664,20 +3726,22 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -3726,10 +3790,10 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>50</v>
@@ -3744,15 +3808,15 @@
         <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3763,10 +3827,10 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -3775,20 +3839,18 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -3836,25 +3898,25 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>62</v>
-      </c>
       <c r="AJ26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -3862,7 +3924,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3888,15 +3950,13 @@
         <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -3944,7 +4004,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3956,13 +4016,13 @@
         <v>42</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -3970,7 +4030,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3993,17 +4053,15 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4040,19 +4098,17 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4064,13 +4120,13 @@
         <v>42</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4078,9 +4134,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4089,7 +4147,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4101,13 +4159,13 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4158,25 +4216,25 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4184,11 +4242,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4201,24 +4259,26 @@
         <v>42</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4266,7 +4326,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4284,50 +4344,48 @@
         <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4376,25 +4434,25 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4402,7 +4460,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4425,19 +4483,19 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4462,13 +4520,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4486,7 +4544,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4504,15 +4562,15 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4523,10 +4581,10 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
@@ -4535,17 +4593,17 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4594,13 +4652,13 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -4612,15 +4670,15 @@
         <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4634,7 +4692,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>42</v>
@@ -4643,18 +4701,18 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4702,7 +4760,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4720,14 +4778,770 @@
         <v>42</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL34">
+  <autoFilter ref="A1:AL41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4737,7 +5551,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
